--- a/biology/Médecine/Loge_antébrachiale_antérieure/Loge_antébrachiale_antérieure.xlsx
+++ b/biology/Médecine/Loge_antébrachiale_antérieure/Loge_antébrachiale_antérieure.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Loge_ant%C3%A9brachiale_ant%C3%A9rieure</t>
+          <t>Loge_antébrachiale_antérieure</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">La loge antébrachiale antérieure est la loge ostéo-aponévrotique située à l'avant de l'avant-bras.
 </t>
@@ -493,7 +505,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Loge_ant%C3%A9brachiale_ant%C3%A9rieure</t>
+          <t>Loge_antébrachiale_antérieure</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -511,7 +523,9 @@
           <t>Limites</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">La loge antébrachiale postérieure est limitée à l'arrière par les faces antérieures du radius, de l'ulna et de la membrane interosseuse de l'avant-bras.
 En avant et latéralement, elle est fermée par le fascia antébrachial qui complète la fermeture postérieure en envoyant en profondeur deux septums.
@@ -527,7 +541,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Loge_ant%C3%A9brachiale_ant%C3%A9rieure</t>
+          <t>Loge_antébrachiale_antérieure</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -545,11 +559,13 @@
           <t>Contenu</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">La loge antébrachiale antérieure contient huit muscles. Ils se répartissent entre la partie profonde et la partie superficielle de la loge.
 Ils se répartissent en muscles intrinsèques qui agissent sur l'avant-bras et muscles extrinsèques qui agissent en dehors de l'avant-bras: sur la main et les doigts.
-Le nerf ulnaire et l'artère ulnaire sont contenus dans cette loge[1].
+Le nerf ulnaire et l'artère ulnaire sont contenus dans cette loge.
 </t>
         </is>
       </c>
